--- a/Employee_Reports28/Crisfo Lo Nibal Q0489.xlsx
+++ b/Employee_Reports28/Crisfo Lo Nibal Q0489.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +68,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -565,11 +562,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -614,11 +611,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -663,11 +660,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -712,11 +709,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -761,11 +758,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -810,11 +807,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -859,11 +856,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -908,11 +905,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -957,11 +954,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1006,11 +1003,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1055,11 +1052,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1104,11 +1101,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1153,11 +1150,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1202,11 +1199,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1251,11 +1248,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1300,11 +1297,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1349,11 +1346,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1398,11 +1395,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1447,11 +1444,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1496,11 +1493,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1545,11 +1542,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1594,11 +1591,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1643,11 +1640,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1692,11 +1689,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1741,11 +1738,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1790,11 +1787,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1839,11 +1836,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1888,11 +1885,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1937,11 +1934,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1986,11 +1983,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2035,11 +2032,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2084,11 +2081,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2133,11 +2130,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2180,11 +2177,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2228,11 +2225,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2275,11 +2272,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2322,11 +2319,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2369,11 +2366,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
@@ -2416,11 +2413,11 @@
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
@@ -2453,11 +2450,11 @@
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
@@ -2500,11 +2497,11 @@
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
@@ -2547,11 +2544,11 @@
         </is>
       </c>
       <c r="H44" s="3" t="n">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
@@ -2594,11 +2591,11 @@
         </is>
       </c>
       <c r="H45" s="3" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
@@ -2641,11 +2638,11 @@
         </is>
       </c>
       <c r="H46" s="3" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J46" s="3" t="inlineStr">
@@ -2678,11 +2675,11 @@
         </is>
       </c>
       <c r="H47" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J47" s="3" t="inlineStr">
@@ -2725,11 +2722,11 @@
         </is>
       </c>
       <c r="H48" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J48" s="3" t="inlineStr">
@@ -2772,11 +2769,11 @@
         </is>
       </c>
       <c r="H49" s="3" t="n">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J49" s="3" t="inlineStr">
@@ -2812,7 +2809,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2872,7 +2869,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -2897,7 +2894,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -2922,7 +2919,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -2947,7 +2944,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -2972,7 +2969,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
